--- a/Data/Transitions/18901920Translation.xlsx
+++ b/Data/Transitions/18901920Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="655">
   <si>
     <t>id</t>
   </si>
@@ -127,7 +127,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4741146168705731}</t>
+    <t>{834.0: 0.47414514778800954}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -139,7 +139,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -163,13 +163,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -244,7 +244,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -259,25 +259,25 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9078772081380286, 762.0: 0.9384369566239015}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9651930696915546}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9079592705927964, 762.0: 0.9384369566239015}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9651714219077976}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9168485213334336, 764.0: 0.02364448224537529}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9109445519019987, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -346,10 +346,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872}</t>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -358,7 +358,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -376,7 +376,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -469,6 +469,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -487,7 +490,7 @@
     <t>{249.0: 0.8123817247904839}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -529,7 +532,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
@@ -553,10 +556,10 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6992746637967333, 180.0: 0.013996985868565445}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6992746637967333, 180.0: 0.02295240336741064}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -610,7 +613,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.7768290641218818}</t>
+    <t>{298.0: 0.7768166089965398}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -634,7 +637,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -649,7 +652,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -673,9 +676,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -805,7 +805,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.06819795248077552}</t>
+    <t>{476.0: 1.0, 595.0: 0.0677851319451776}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -835,7 +835,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -868,7 +868,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -877,13 +877,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.2644754603466771, 180.0: 0.00529385586624206}</t>
+    <t>{277.0: 0.2644754603466771, 180.0: 0.00868092004606518}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.23553719008264462}</t>
+    <t>{534.0: 0.22213106348066866}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -913,7 +913,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -925,7 +925,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1018,13 +1018,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6549268314805103}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6553396520161082}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1048,7 +1048,7 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 837.0: 0.04255546531013551}</t>
+    <t>{604.0: 1.0, 837.0: 0.043670899958325106}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1078,7 +1078,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1165,7 +1165,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1192,7 +1192,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1225,13 +1225,13 @@
     <t>{730.0: 0.734187349879904, 289.0: 0.17008952080042128}</t>
   </si>
   <si>
-    <t>{731.0: 0.5093056179396515}</t>
+    <t>{731.0: 0.5242772338343619}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1264,7 +1264,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.7593283582089553}</t>
+    <t>{757.0: 0.7565118912797282}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1309,13 +1309,13 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1402,7 +1402,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1420,7 +1420,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1516,7 +1516,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.5940957425838385}</t>
+    <t>{909.0: 0.5940772123747377}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1543,7 +1543,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1552,7 +1552,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1579,7 +1579,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.93016028215246}</t>
+    <t>{930.0: 0.9201405526273758}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1600,16 +1600,16 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.1834781652183478, 497.0: 0.03279947345326898, 731.0: 0.08397950602729068}</t>
+    <t>{593.0: 0.24784505665281187}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.1834781652183478, 497.0: 0.03292407641909376, 731.0: 0.06900789013258028}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1660,7 +1660,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.12623867399284688}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009012, 762.0: 0.057901139999098836}</t>
+    <t>{141.0: 0.9421837681943132, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1720,7 +1720,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432473, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432471, 764.0: 0.041601197156752714}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1738,7 +1738,7 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.21109560362875088}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977655}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1747,7 +1747,7 @@
     <t>{206.0: 0.8527388535031847, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{212.0: 0.48788501026694037, 681.0: 0.5121149897330596}</t>
+    <t>{212.0: 0.4878850102669402, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -1762,10 +1762,10 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.9502995340581318, 144.0: 0.049700465941868194}</t>
-  </si>
-  <si>
-    <t>{255.0: 0.8887904297740361, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{581.0: 0.9502995340581317, 144.0: 0.049700465941868194}</t>
+  </si>
+  <si>
+    <t>{255.0: 0.8887904297740361, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1780,7 +1780,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
@@ -1792,7 +1792,7 @@
     <t>{142.0: 0.2893693984406716, 909.0: 0.7106306015593284}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -1810,7 +1810,7 @@
     <t>{431.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.1186280083380709}</t>
@@ -1825,13 +1825,10 @@
     <t>{497.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434108, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -1843,7 +1840,7 @@
     <t>{545.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587966, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1858,10 +1855,10 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124715, 837.0: 0.18177668218752852}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664717, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1873,9 +1870,6 @@
     <t>{629.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{226.0: 0.5, 729.0: 0.5}</t>
   </si>
   <si>
@@ -1888,7 +1882,7 @@
     <t>{615.0: 0.5922794117647059, 698.0: 0.11176470588235297, 751.0: 0.2959558823529412}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.29214237743451976}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -1921,10 +1915,10 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787177, 917.0: 0.07999122892128212}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.05790113999909883}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
@@ -1933,13 +1927,13 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414814, 486.0: 0.031034225058518626}</t>
+    <t>{837.0: 0.9689657749414812, 486.0: 0.031034225058518626}</t>
   </si>
   <si>
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -1963,22 +1957,22 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123948}</t>
+    <t>{785.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137406}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372655, 729.0: 0.3049207329627342}</t>
@@ -3989,7 +3983,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4000,7 +3994,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4011,7 +4005,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4022,7 +4016,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4033,7 +4027,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4044,40 +4038,40 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>581</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4088,7 +4082,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4099,7 +4093,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4110,40 +4104,40 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>583</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4154,7 +4148,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4165,7 +4159,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4176,7 +4170,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4187,7 +4181,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4198,7 +4192,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4209,51 +4203,51 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>585</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>586</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4264,7 +4258,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4275,7 +4269,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4286,7 +4280,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4297,40 +4291,40 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>587</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>588</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4341,7 +4335,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4352,7 +4346,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4363,7 +4357,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4374,7 +4368,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4385,7 +4379,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4396,7 +4390,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4407,7 +4401,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4418,29 +4412,29 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>589</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>191</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4451,7 +4445,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4462,7 +4456,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4473,7 +4467,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4484,7 +4478,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4495,7 +4489,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4506,29 +4500,29 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>590</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>590</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4539,7 +4533,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4550,7 +4544,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4561,7 +4555,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4572,7 +4566,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4583,7 +4577,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4594,29 +4588,29 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>591</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4627,7 +4621,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4638,40 +4632,40 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>592</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4682,7 +4676,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4693,7 +4687,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4704,7 +4698,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4715,7 +4709,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4726,7 +4720,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4737,7 +4731,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -5491,7 +5485,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5513,7 +5507,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5623,7 +5617,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5667,7 +5661,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5689,7 +5683,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5700,7 +5694,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5722,7 +5716,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5788,7 +5782,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5799,7 +5793,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5898,7 +5892,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5920,7 +5914,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6008,7 +6002,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6107,7 +6101,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6118,7 +6112,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6228,7 +6222,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6250,7 +6244,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6371,7 +6365,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6382,7 +6376,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6393,7 +6387,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6404,7 +6398,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6437,7 +6431,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6481,7 +6475,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6503,7 +6497,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6547,7 +6541,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6646,7 +6640,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6679,7 +6673,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6745,7 +6739,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6756,7 +6750,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6789,7 +6783,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6800,7 +6794,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6811,7 +6805,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6877,7 +6871,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6888,7 +6882,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6910,7 +6904,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6965,7 +6959,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6987,7 +6981,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7020,7 +7014,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7031,7 +7025,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7075,7 +7069,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7262,7 +7256,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7317,7 +7311,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7416,7 +7410,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7427,7 +7421,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7548,7 +7542,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7592,7 +7586,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7680,7 +7674,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7724,7 +7718,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7735,7 +7729,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7834,7 +7828,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7867,7 +7861,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7878,7 +7872,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7889,7 +7883,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7933,7 +7927,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7944,7 +7938,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8065,7 +8059,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8098,7 +8092,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8142,7 +8136,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8153,7 +8147,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8175,7 +8169,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8241,7 +8235,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8252,7 +8246,7 @@
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -8274,7 +8268,7 @@
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8318,7 +8312,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8351,7 +8345,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -8362,7 +8356,7 @@
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="548" spans="1:3">
